--- a/Code/Results/Cases/Case_1_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_80/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021613894526089</v>
+        <v>1.049656380268245</v>
       </c>
       <c r="D2">
-        <v>1.048926065891864</v>
+        <v>1.058211182012943</v>
       </c>
       <c r="E2">
-        <v>1.035779319077015</v>
+        <v>1.0568314220712</v>
       </c>
       <c r="F2">
-        <v>1.048506392095307</v>
+        <v>1.067561923627415</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060466854404756</v>
+        <v>1.04916475645157</v>
       </c>
       <c r="J2">
-        <v>1.043166811515407</v>
+        <v>1.054693671362677</v>
       </c>
       <c r="K2">
-        <v>1.059743402596982</v>
+        <v>1.060944036469356</v>
       </c>
       <c r="L2">
-        <v>1.046761718293637</v>
+        <v>1.059568054282428</v>
       </c>
       <c r="M2">
-        <v>1.059328918328635</v>
+        <v>1.070269454366599</v>
       </c>
       <c r="N2">
-        <v>1.01776367304395</v>
+        <v>1.022006308103492</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026668336262849</v>
+        <v>1.050716512279256</v>
       </c>
       <c r="D3">
-        <v>1.052346381031969</v>
+        <v>1.058933587860115</v>
       </c>
       <c r="E3">
-        <v>1.039924408323871</v>
+        <v>1.057746352548941</v>
       </c>
       <c r="F3">
-        <v>1.052733450068489</v>
+        <v>1.068493663779592</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062213199354421</v>
+        <v>1.049459089842716</v>
       </c>
       <c r="J3">
-        <v>1.04645748493935</v>
+        <v>1.055402629931996</v>
       </c>
       <c r="K3">
-        <v>1.062350582562706</v>
+        <v>1.061480663106086</v>
       </c>
       <c r="L3">
-        <v>1.050070715299667</v>
+        <v>1.060296443913907</v>
       </c>
       <c r="M3">
-        <v>1.062733289972098</v>
+        <v>1.071016715151169</v>
       </c>
       <c r="N3">
-        <v>1.018896368036774</v>
+        <v>1.022246933887035</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029868681905622</v>
+        <v>1.051402771337858</v>
       </c>
       <c r="D4">
-        <v>1.054515293181607</v>
+        <v>1.059401156220499</v>
       </c>
       <c r="E4">
-        <v>1.042554828292231</v>
+        <v>1.058338952975786</v>
       </c>
       <c r="F4">
-        <v>1.055416143752042</v>
+        <v>1.069097149255698</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063308676165893</v>
+        <v>1.049648310768965</v>
       </c>
       <c r="J4">
-        <v>1.048538019606164</v>
+        <v>1.055861062871362</v>
       </c>
       <c r="K4">
-        <v>1.063997445869824</v>
+        <v>1.061827347479925</v>
       </c>
       <c r="L4">
-        <v>1.052165412888392</v>
+        <v>1.060767707128274</v>
       </c>
       <c r="M4">
-        <v>1.06488876728784</v>
+        <v>1.071500198686111</v>
       </c>
       <c r="N4">
-        <v>1.019612051621298</v>
+        <v>1.022402410313867</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031197942166974</v>
+        <v>1.051691342159222</v>
       </c>
       <c r="D5">
-        <v>1.055416850450338</v>
+        <v>1.059597750409831</v>
       </c>
       <c r="E5">
-        <v>1.043648721441436</v>
+        <v>1.058588220051641</v>
       </c>
       <c r="F5">
-        <v>1.056531827506342</v>
+        <v>1.069350994188324</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063761170271554</v>
+        <v>1.049727563790327</v>
       </c>
       <c r="J5">
-        <v>1.049401399599381</v>
+        <v>1.05605371321758</v>
       </c>
       <c r="K5">
-        <v>1.064680463434125</v>
+        <v>1.06197296142384</v>
       </c>
       <c r="L5">
-        <v>1.05303528299963</v>
+        <v>1.06096581273358</v>
       </c>
       <c r="M5">
-        <v>1.065783964914272</v>
+        <v>1.071703443814323</v>
       </c>
       <c r="N5">
-        <v>1.019908927087591</v>
+        <v>1.02246771858792</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03142020098976</v>
+        <v>1.051739798423794</v>
       </c>
       <c r="D6">
-        <v>1.055567634257927</v>
+        <v>1.059630761075369</v>
       </c>
       <c r="E6">
-        <v>1.04383170363649</v>
+        <v>1.058630081150895</v>
       </c>
       <c r="F6">
-        <v>1.056718457523707</v>
+        <v>1.069393624030031</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063836680505758</v>
+        <v>1.049740853383979</v>
       </c>
       <c r="J6">
-        <v>1.049545714699338</v>
+        <v>1.056086055654344</v>
       </c>
       <c r="K6">
-        <v>1.064794606482625</v>
+        <v>1.061997402873659</v>
       </c>
       <c r="L6">
-        <v>1.053180718803674</v>
+        <v>1.06099907472965</v>
       </c>
       <c r="M6">
-        <v>1.065933640152085</v>
+        <v>1.071737568877515</v>
       </c>
       <c r="N6">
-        <v>1.019958543017671</v>
+        <v>1.022478680959466</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029886506235502</v>
+        <v>1.051406626970229</v>
       </c>
       <c r="D7">
-        <v>1.054527379681211</v>
+        <v>1.059403783011283</v>
       </c>
       <c r="E7">
-        <v>1.042569491266263</v>
+        <v>1.058342283153988</v>
       </c>
       <c r="F7">
-        <v>1.055431098623497</v>
+        <v>1.069100540596633</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063314753738522</v>
+        <v>1.049649370913157</v>
       </c>
       <c r="J7">
-        <v>1.048549599934767</v>
+        <v>1.055863637369481</v>
       </c>
       <c r="K7">
-        <v>1.064006608646814</v>
+        <v>1.061829293700836</v>
       </c>
       <c r="L7">
-        <v>1.052177077852559</v>
+        <v>1.060770354278696</v>
       </c>
       <c r="M7">
-        <v>1.064900771561424</v>
+        <v>1.071502914503035</v>
       </c>
       <c r="N7">
-        <v>1.019616034026637</v>
+        <v>1.02240328317879</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023337005042407</v>
+        <v>1.050014598188683</v>
       </c>
       <c r="D8">
-        <v>1.050091353772643</v>
+        <v>1.058455296219865</v>
       </c>
       <c r="E8">
-        <v>1.037191160191646</v>
+        <v>1.057140506688586</v>
       </c>
       <c r="F8">
-        <v>1.049946092129656</v>
+        <v>1.067876687393519</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061064325439786</v>
+        <v>1.049264482745624</v>
       </c>
       <c r="J8">
-        <v>1.044289248455794</v>
+        <v>1.054933331261091</v>
       </c>
       <c r="K8">
-        <v>1.06063300530364</v>
+        <v>1.061125505166156</v>
       </c>
       <c r="L8">
-        <v>1.047889860170887</v>
+        <v>1.059814227689291</v>
       </c>
       <c r="M8">
-        <v>1.06048948543617</v>
+        <v>1.07052200332359</v>
       </c>
       <c r="N8">
-        <v>1.018150124480932</v>
+        <v>1.022087675051393</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.011227309495562</v>
+        <v>1.047563838853953</v>
       </c>
       <c r="D9">
-        <v>1.041919197190287</v>
+        <v>1.056784935700791</v>
       </c>
       <c r="E9">
-        <v>1.027296246281786</v>
+        <v>1.055027294845132</v>
       </c>
       <c r="F9">
-        <v>1.039857448193532</v>
+        <v>1.065724641869396</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056823791007212</v>
+        <v>1.048576839136172</v>
       </c>
       <c r="J9">
-        <v>1.036389738141392</v>
+        <v>1.05329165509129</v>
       </c>
       <c r="K9">
-        <v>1.054366900440943</v>
+        <v>1.059881168486438</v>
       </c>
       <c r="L9">
-        <v>1.039961457621103</v>
+        <v>1.058129027364434</v>
       </c>
       <c r="M9">
-        <v>1.052335348440079</v>
+        <v>1.068793208420777</v>
       </c>
       <c r="N9">
-        <v>1.015428668530205</v>
+        <v>1.021529824828717</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002725555974597</v>
+        <v>1.04593146806375</v>
       </c>
       <c r="D10">
-        <v>1.036207831221681</v>
+        <v>1.055672095231603</v>
       </c>
       <c r="E10">
-        <v>1.020386848675485</v>
+        <v>1.053621539961588</v>
       </c>
       <c r="F10">
-        <v>1.032815215261476</v>
+        <v>1.064293052769908</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053796045834991</v>
+        <v>1.048112098555884</v>
       </c>
       <c r="J10">
-        <v>1.03083145178561</v>
+        <v>1.05219564607019</v>
       </c>
       <c r="K10">
-        <v>1.049952731902162</v>
+        <v>1.059048849376609</v>
       </c>
       <c r="L10">
-        <v>1.034397516429215</v>
+        <v>1.057005338141598</v>
       </c>
       <c r="M10">
-        <v>1.046616223345797</v>
+        <v>1.067640518623316</v>
       </c>
       <c r="N10">
-        <v>1.013511986139342</v>
+        <v>1.021156790859933</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.998931196847303</v>
+        <v>1.045224982579521</v>
       </c>
       <c r="D11">
-        <v>1.033666378956685</v>
+        <v>1.055190410213152</v>
       </c>
       <c r="E11">
-        <v>1.017313011651677</v>
+        <v>1.05301356596378</v>
       </c>
       <c r="F11">
-        <v>1.029683039667143</v>
+        <v>1.063673907209321</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052433522757889</v>
+        <v>1.047909368289318</v>
       </c>
       <c r="J11">
-        <v>1.028348506975888</v>
+        <v>1.051720697631652</v>
       </c>
       <c r="K11">
-        <v>1.047980148992309</v>
+        <v>1.058687799831713</v>
       </c>
       <c r="L11">
-        <v>1.031915652432607</v>
+        <v>1.056518722499786</v>
       </c>
       <c r="M11">
-        <v>1.044066077736848</v>
+        <v>1.067141362226947</v>
       </c>
       <c r="N11">
-        <v>1.012655468623827</v>
+        <v>1.020994997049184</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9975037648445032</v>
+        <v>1.044962613720388</v>
       </c>
       <c r="D12">
-        <v>1.032711547581867</v>
+        <v>1.055011519360587</v>
       </c>
       <c r="E12">
-        <v>1.016158206394149</v>
+        <v>1.052787847280828</v>
       </c>
       <c r="F12">
-        <v>1.028506447310361</v>
+        <v>1.063444041295728</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051919326655666</v>
+        <v>1.047833841019937</v>
       </c>
       <c r="J12">
-        <v>1.027414146841232</v>
+        <v>1.051544225494213</v>
       </c>
       <c r="K12">
-        <v>1.047237779665737</v>
+        <v>1.05855359297479</v>
       </c>
       <c r="L12">
-        <v>1.030982252666659</v>
+        <v>1.056337964648175</v>
       </c>
       <c r="M12">
-        <v>1.043107155145748</v>
+        <v>1.06695594885209</v>
       </c>
       <c r="N12">
-        <v>1.012333113806028</v>
+        <v>1.020934859626611</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9978107879671585</v>
+        <v>1.04501889041038</v>
       </c>
       <c r="D13">
-        <v>1.032916861145377</v>
+        <v>1.055049890753589</v>
       </c>
       <c r="E13">
-        <v>1.016406518570968</v>
+        <v>1.052836259718982</v>
       </c>
       <c r="F13">
-        <v>1.028759438112091</v>
+        <v>1.063493343218465</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052029995811681</v>
+        <v>1.047850052017052</v>
       </c>
       <c r="J13">
-        <v>1.0276151279058</v>
+        <v>1.051582081856433</v>
       </c>
       <c r="K13">
-        <v>1.047397465612482</v>
+        <v>1.058582385179196</v>
       </c>
       <c r="L13">
-        <v>1.031183001947131</v>
+        <v>1.056376738135882</v>
       </c>
       <c r="M13">
-        <v>1.04331338634015</v>
+        <v>1.066995720841817</v>
       </c>
       <c r="N13">
-        <v>1.01240245393538</v>
+        <v>1.020947761114445</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9988135792376865</v>
+        <v>1.045203294041432</v>
       </c>
       <c r="D14">
-        <v>1.033587676388855</v>
+        <v>1.055175622453966</v>
       </c>
       <c r="E14">
-        <v>1.017217825579986</v>
+        <v>1.052994905740535</v>
       </c>
       <c r="F14">
-        <v>1.029586055028941</v>
+        <v>1.063654904125129</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052391186440816</v>
+        <v>1.047903129753904</v>
       </c>
       <c r="J14">
-        <v>1.028271522859836</v>
+        <v>1.051706111512576</v>
       </c>
       <c r="K14">
-        <v>1.047918984482032</v>
+        <v>1.058676708225625</v>
       </c>
       <c r="L14">
-        <v>1.031838736124019</v>
+        <v>1.056503781142081</v>
       </c>
       <c r="M14">
-        <v>1.043987054946481</v>
+        <v>1.067126035986794</v>
       </c>
       <c r="N14">
-        <v>1.012628909763635</v>
+        <v>1.020990026885778</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9994290088614157</v>
+        <v>1.045316918001697</v>
       </c>
       <c r="D15">
-        <v>1.033999536609788</v>
+        <v>1.055253093699638</v>
       </c>
       <c r="E15">
-        <v>1.017715947442698</v>
+        <v>1.053092667377666</v>
       </c>
       <c r="F15">
-        <v>1.030093594439537</v>
+        <v>1.063754462039959</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052612644137252</v>
+        <v>1.047935802997227</v>
       </c>
       <c r="J15">
-        <v>1.028674328240601</v>
+        <v>1.051782522980888</v>
       </c>
       <c r="K15">
-        <v>1.048239014315853</v>
+        <v>1.058734810936397</v>
       </c>
       <c r="L15">
-        <v>1.032241209342006</v>
+        <v>1.056582055600441</v>
       </c>
       <c r="M15">
-        <v>1.044400557064662</v>
+        <v>1.067206326876742</v>
       </c>
       <c r="N15">
-        <v>1.012767872693818</v>
+        <v>1.021016062928765</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00297490525491</v>
+        <v>1.045978362376241</v>
       </c>
       <c r="D16">
-        <v>1.036375012242007</v>
+        <v>1.055704067007582</v>
       </c>
       <c r="E16">
-        <v>1.02058906056418</v>
+        <v>1.053661904572023</v>
       </c>
       <c r="F16">
-        <v>1.033021282071415</v>
+        <v>1.064334159125995</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053885357180429</v>
+        <v>1.048125521634784</v>
       </c>
       <c r="J16">
-        <v>1.030994578303849</v>
+        <v>1.052227159082349</v>
       </c>
       <c r="K16">
-        <v>1.050082316868232</v>
+        <v>1.059072797409687</v>
       </c>
       <c r="L16">
-        <v>1.034560647962456</v>
+        <v>1.057037632191224</v>
       </c>
       <c r="M16">
-        <v>1.046783863878036</v>
+        <v>1.067673645327129</v>
       </c>
       <c r="N16">
-        <v>1.013568252574502</v>
+        <v>1.021167522961557</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005168168498823</v>
+        <v>1.046393360439769</v>
       </c>
       <c r="D17">
-        <v>1.037846400385209</v>
+        <v>1.05598700016975</v>
       </c>
       <c r="E17">
-        <v>1.022368835583894</v>
+        <v>1.054019167185271</v>
       </c>
       <c r="F17">
-        <v>1.034835074378845</v>
+        <v>1.06469798703339</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054669666444466</v>
+        <v>1.048244127217486</v>
       </c>
       <c r="J17">
-        <v>1.032429180169867</v>
+        <v>1.052505968931179</v>
       </c>
       <c r="K17">
-        <v>1.051221863074784</v>
+        <v>1.059284633867827</v>
       </c>
       <c r="L17">
-        <v>1.035995705145819</v>
+        <v>1.057323390101183</v>
       </c>
       <c r="M17">
-        <v>1.048258695156035</v>
+        <v>1.067966773179009</v>
       </c>
       <c r="N17">
-        <v>1.014063048129976</v>
+        <v>1.021262458333645</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006436630239498</v>
+        <v>1.046635454774833</v>
       </c>
       <c r="D18">
-        <v>1.038698076290432</v>
+        <v>1.056152047811806</v>
       </c>
       <c r="E18">
-        <v>1.023399085857259</v>
+        <v>1.054227622536019</v>
       </c>
       <c r="F18">
-        <v>1.035885086811097</v>
+        <v>1.064910273228791</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055122198405261</v>
+        <v>1.048313163625748</v>
       </c>
       <c r="J18">
-        <v>1.033258655611342</v>
+        <v>1.052668558343751</v>
       </c>
       <c r="K18">
-        <v>1.051880667685825</v>
+        <v>1.059408131742073</v>
       </c>
       <c r="L18">
-        <v>1.036825784626815</v>
+        <v>1.057490062921349</v>
       </c>
       <c r="M18">
-        <v>1.049111869163701</v>
+        <v>1.068137746360536</v>
       </c>
       <c r="N18">
-        <v>1.01434910447819</v>
+        <v>1.021317806692301</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006867336368572</v>
+        <v>1.046718008283413</v>
       </c>
       <c r="D19">
-        <v>1.038987379070565</v>
+        <v>1.056208327732092</v>
       </c>
       <c r="E19">
-        <v>1.02374906203992</v>
+        <v>1.054298712295181</v>
       </c>
       <c r="F19">
-        <v>1.036241787730859</v>
+        <v>1.064982669442956</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055275672251101</v>
+        <v>1.048336678784903</v>
       </c>
       <c r="J19">
-        <v>1.033540265138481</v>
+        <v>1.052723991073612</v>
       </c>
       <c r="K19">
-        <v>1.052104320411839</v>
+        <v>1.059450230662622</v>
       </c>
       <c r="L19">
-        <v>1.037107656698038</v>
+        <v>1.057546893193852</v>
       </c>
       <c r="M19">
-        <v>1.049401597972476</v>
+        <v>1.06819604321132</v>
       </c>
       <c r="N19">
-        <v>1.014446216046693</v>
+        <v>1.021336674663285</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004933979830282</v>
+        <v>1.046348831663444</v>
       </c>
       <c r="D20">
-        <v>1.037689216714376</v>
+        <v>1.055956642299923</v>
       </c>
       <c r="E20">
-        <v>1.022178700859705</v>
+        <v>1.053980829030859</v>
       </c>
       <c r="F20">
-        <v>1.034641298112256</v>
+        <v>1.064658944337069</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054586031200857</v>
+        <v>1.048231416876136</v>
       </c>
       <c r="J20">
-        <v>1.032276020878209</v>
+        <v>1.052476058958468</v>
       </c>
       <c r="K20">
-        <v>1.051100211328816</v>
+        <v>1.059261912306183</v>
       </c>
       <c r="L20">
-        <v>1.035842461795894</v>
+        <v>1.057292731488547</v>
       </c>
       <c r="M20">
-        <v>1.048101195265438</v>
+        <v>1.067935323674783</v>
       </c>
       <c r="N20">
-        <v>1.014010226443404</v>
+        <v>1.021252275337638</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9985187890309201</v>
+        <v>1.045148990352321</v>
       </c>
       <c r="D21">
-        <v>1.033390441382997</v>
+        <v>1.055138596809465</v>
       </c>
       <c r="E21">
-        <v>1.016979282078301</v>
+        <v>1.05294818540123</v>
       </c>
       <c r="F21">
-        <v>1.029343006335793</v>
+        <v>1.0636073253577</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052285051264872</v>
+        <v>1.047887505870417</v>
       </c>
       <c r="J21">
-        <v>1.028078569870141</v>
+        <v>1.051669589389579</v>
       </c>
       <c r="K21">
-        <v>1.047765680877726</v>
+        <v>1.058648935111249</v>
       </c>
       <c r="L21">
-        <v>1.031645962044323</v>
+        <v>1.056466370336214</v>
       </c>
       <c r="M21">
-        <v>1.043789004011863</v>
+        <v>1.067087661542553</v>
       </c>
       <c r="N21">
-        <v>1.01256234206402</v>
+        <v>1.020977581771983</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9943803563666694</v>
+        <v>1.04439489931713</v>
       </c>
       <c r="D22">
-        <v>1.03062471179233</v>
+        <v>1.054624424022851</v>
       </c>
       <c r="E22">
-        <v>1.013634326303026</v>
+        <v>1.05229955772567</v>
       </c>
       <c r="F22">
-        <v>1.025935208599149</v>
+        <v>1.062946781004428</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050791304321041</v>
+        <v>1.047669978249805</v>
       </c>
       <c r="J22">
-        <v>1.025369198217248</v>
+        <v>1.051162211109395</v>
       </c>
       <c r="K22">
-        <v>1.045612957786159</v>
+        <v>1.05826297124702</v>
       </c>
       <c r="L22">
-        <v>1.028940438388813</v>
+        <v>1.055946763242853</v>
       </c>
       <c r="M22">
-        <v>1.041009816971943</v>
+        <v>1.06655467721433</v>
       </c>
       <c r="N22">
-        <v>1.011627547114894</v>
+        <v>1.020804639717573</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9965845400948983</v>
+        <v>1.044794629123764</v>
       </c>
       <c r="D23">
-        <v>1.032097034949205</v>
+        <v>1.054896980773475</v>
       </c>
       <c r="E23">
-        <v>1.015414998502016</v>
+        <v>1.052643346980541</v>
       </c>
       <c r="F23">
-        <v>1.027749256487514</v>
+        <v>1.063296886147519</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05158775274284</v>
+        <v>1.047785416604062</v>
       </c>
       <c r="J23">
-        <v>1.026812374908928</v>
+        <v>1.051431212044315</v>
       </c>
       <c r="K23">
-        <v>1.04675964663989</v>
+        <v>1.058467630929754</v>
       </c>
       <c r="L23">
-        <v>1.030381256830985</v>
+        <v>1.056222220518626</v>
       </c>
       <c r="M23">
-        <v>1.042489772053514</v>
+        <v>1.066837224487968</v>
       </c>
       <c r="N23">
-        <v>1.012125492767497</v>
+        <v>1.020896341426984</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005039833004551</v>
+        <v>1.046368952198683</v>
       </c>
       <c r="D24">
-        <v>1.037760261481628</v>
+        <v>1.055970359660516</v>
       </c>
       <c r="E24">
-        <v>1.02226463880176</v>
+        <v>1.053998152175959</v>
       </c>
       <c r="F24">
-        <v>1.034728881756874</v>
+        <v>1.06467658582997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054623837614473</v>
+        <v>1.048237160577891</v>
       </c>
       <c r="J24">
-        <v>1.03234524949274</v>
+        <v>1.052489574097799</v>
       </c>
       <c r="K24">
-        <v>1.05115519863291</v>
+        <v>1.059272179395758</v>
       </c>
       <c r="L24">
-        <v>1.035911727348978</v>
+        <v>1.057306584811141</v>
       </c>
       <c r="M24">
-        <v>1.048172384490893</v>
+        <v>1.067949534362328</v>
       </c>
       <c r="N24">
-        <v>1.01403410215315</v>
+        <v>1.021256876675045</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014429905799721</v>
+        <v>1.048197160577859</v>
       </c>
       <c r="D25">
-        <v>1.044076410533914</v>
+        <v>1.05721663942323</v>
       </c>
       <c r="E25">
-        <v>1.029906968486505</v>
+        <v>1.055573076044033</v>
       </c>
       <c r="F25">
-        <v>1.042518919034507</v>
+        <v>1.066280453481247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057954220882833</v>
+        <v>1.048755725624007</v>
       </c>
       <c r="J25">
-        <v>1.038481217009809</v>
+        <v>1.053716344372003</v>
       </c>
       <c r="K25">
-        <v>1.056026966938693</v>
+        <v>1.060203349211975</v>
       </c>
       <c r="L25">
-        <v>1.042058102201938</v>
+        <v>1.058564733814121</v>
       </c>
       <c r="M25">
-        <v>1.054491185995196</v>
+        <v>1.069240174782798</v>
       </c>
       <c r="N25">
-        <v>1.016149547778583</v>
+        <v>1.021674243410187</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_80/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049656380268245</v>
+        <v>1.021613894526088</v>
       </c>
       <c r="D2">
-        <v>1.058211182012943</v>
+        <v>1.048926065891863</v>
       </c>
       <c r="E2">
-        <v>1.0568314220712</v>
+        <v>1.035779319077014</v>
       </c>
       <c r="F2">
-        <v>1.067561923627415</v>
+        <v>1.048506392095307</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04916475645157</v>
+        <v>1.060466854404755</v>
       </c>
       <c r="J2">
-        <v>1.054693671362677</v>
+        <v>1.043166811515406</v>
       </c>
       <c r="K2">
-        <v>1.060944036469356</v>
+        <v>1.059743402596981</v>
       </c>
       <c r="L2">
-        <v>1.059568054282428</v>
+        <v>1.046761718293636</v>
       </c>
       <c r="M2">
-        <v>1.070269454366599</v>
+        <v>1.059328918328635</v>
       </c>
       <c r="N2">
-        <v>1.022006308103492</v>
+        <v>1.017763673043949</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050716512279256</v>
+        <v>1.026668336262849</v>
       </c>
       <c r="D3">
-        <v>1.058933587860115</v>
+        <v>1.052346381031968</v>
       </c>
       <c r="E3">
-        <v>1.057746352548941</v>
+        <v>1.039924408323871</v>
       </c>
       <c r="F3">
-        <v>1.068493663779592</v>
+        <v>1.052733450068488</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049459089842716</v>
+        <v>1.062213199354421</v>
       </c>
       <c r="J3">
-        <v>1.055402629931996</v>
+        <v>1.04645748493935</v>
       </c>
       <c r="K3">
-        <v>1.061480663106086</v>
+        <v>1.062350582562705</v>
       </c>
       <c r="L3">
-        <v>1.060296443913907</v>
+        <v>1.050070715299667</v>
       </c>
       <c r="M3">
-        <v>1.071016715151169</v>
+        <v>1.062733289972098</v>
       </c>
       <c r="N3">
-        <v>1.022246933887035</v>
+        <v>1.018896368036774</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051402771337858</v>
+        <v>1.029868681905622</v>
       </c>
       <c r="D4">
-        <v>1.059401156220499</v>
+        <v>1.054515293181608</v>
       </c>
       <c r="E4">
-        <v>1.058338952975786</v>
+        <v>1.042554828292232</v>
       </c>
       <c r="F4">
-        <v>1.069097149255698</v>
+        <v>1.055416143752043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049648310768965</v>
+        <v>1.063308676165893</v>
       </c>
       <c r="J4">
-        <v>1.055861062871362</v>
+        <v>1.048538019606165</v>
       </c>
       <c r="K4">
-        <v>1.061827347479925</v>
+        <v>1.063997445869824</v>
       </c>
       <c r="L4">
-        <v>1.060767707128274</v>
+        <v>1.052165412888393</v>
       </c>
       <c r="M4">
-        <v>1.071500198686111</v>
+        <v>1.064888767287842</v>
       </c>
       <c r="N4">
-        <v>1.022402410313867</v>
+        <v>1.019612051621299</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051691342159222</v>
+        <v>1.031197942166974</v>
       </c>
       <c r="D5">
-        <v>1.059597750409831</v>
+        <v>1.055416850450338</v>
       </c>
       <c r="E5">
-        <v>1.058588220051641</v>
+        <v>1.043648721441436</v>
       </c>
       <c r="F5">
-        <v>1.069350994188324</v>
+        <v>1.056531827506342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049727563790327</v>
+        <v>1.063761170271554</v>
       </c>
       <c r="J5">
-        <v>1.05605371321758</v>
+        <v>1.049401399599381</v>
       </c>
       <c r="K5">
-        <v>1.06197296142384</v>
+        <v>1.064680463434125</v>
       </c>
       <c r="L5">
-        <v>1.06096581273358</v>
+        <v>1.05303528299963</v>
       </c>
       <c r="M5">
-        <v>1.071703443814323</v>
+        <v>1.065783964914272</v>
       </c>
       <c r="N5">
-        <v>1.02246771858792</v>
+        <v>1.019908927087591</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051739798423794</v>
+        <v>1.031420200989759</v>
       </c>
       <c r="D6">
-        <v>1.059630761075369</v>
+        <v>1.055567634257927</v>
       </c>
       <c r="E6">
-        <v>1.058630081150895</v>
+        <v>1.043831703636489</v>
       </c>
       <c r="F6">
-        <v>1.069393624030031</v>
+        <v>1.056718457523707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049740853383979</v>
+        <v>1.063836680505758</v>
       </c>
       <c r="J6">
-        <v>1.056086055654344</v>
+        <v>1.049545714699338</v>
       </c>
       <c r="K6">
-        <v>1.061997402873659</v>
+        <v>1.064794606482624</v>
       </c>
       <c r="L6">
-        <v>1.06099907472965</v>
+        <v>1.053180718803673</v>
       </c>
       <c r="M6">
-        <v>1.071737568877515</v>
+        <v>1.065933640152084</v>
       </c>
       <c r="N6">
-        <v>1.022478680959466</v>
+        <v>1.019958543017671</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051406626970229</v>
+        <v>1.029886506235502</v>
       </c>
       <c r="D7">
-        <v>1.059403783011283</v>
+        <v>1.054527379681211</v>
       </c>
       <c r="E7">
-        <v>1.058342283153988</v>
+        <v>1.042569491266263</v>
       </c>
       <c r="F7">
-        <v>1.069100540596633</v>
+        <v>1.055431098623497</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049649370913157</v>
+        <v>1.063314753738522</v>
       </c>
       <c r="J7">
-        <v>1.055863637369481</v>
+        <v>1.048549599934767</v>
       </c>
       <c r="K7">
-        <v>1.061829293700836</v>
+        <v>1.064006608646814</v>
       </c>
       <c r="L7">
-        <v>1.060770354278696</v>
+        <v>1.05217707785256</v>
       </c>
       <c r="M7">
-        <v>1.071502914503035</v>
+        <v>1.064900771561424</v>
       </c>
       <c r="N7">
-        <v>1.02240328317879</v>
+        <v>1.019616034026637</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050014598188683</v>
+        <v>1.023337005042406</v>
       </c>
       <c r="D8">
-        <v>1.058455296219865</v>
+        <v>1.050091353772642</v>
       </c>
       <c r="E8">
-        <v>1.057140506688586</v>
+        <v>1.037191160191645</v>
       </c>
       <c r="F8">
-        <v>1.067876687393519</v>
+        <v>1.049946092129655</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049264482745624</v>
+        <v>1.061064325439786</v>
       </c>
       <c r="J8">
-        <v>1.054933331261091</v>
+        <v>1.044289248455794</v>
       </c>
       <c r="K8">
-        <v>1.061125505166156</v>
+        <v>1.06063300530364</v>
       </c>
       <c r="L8">
-        <v>1.059814227689291</v>
+        <v>1.047889860170887</v>
       </c>
       <c r="M8">
-        <v>1.07052200332359</v>
+        <v>1.060489485436169</v>
       </c>
       <c r="N8">
-        <v>1.022087675051393</v>
+        <v>1.018150124480932</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047563838853953</v>
+        <v>1.011227309495562</v>
       </c>
       <c r="D9">
-        <v>1.056784935700791</v>
+        <v>1.041919197190288</v>
       </c>
       <c r="E9">
-        <v>1.055027294845132</v>
+        <v>1.027296246281785</v>
       </c>
       <c r="F9">
-        <v>1.065724641869396</v>
+        <v>1.039857448193532</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048576839136172</v>
+        <v>1.056823791007213</v>
       </c>
       <c r="J9">
-        <v>1.05329165509129</v>
+        <v>1.036389738141392</v>
       </c>
       <c r="K9">
-        <v>1.059881168486438</v>
+        <v>1.054366900440943</v>
       </c>
       <c r="L9">
-        <v>1.058129027364434</v>
+        <v>1.039961457621102</v>
       </c>
       <c r="M9">
-        <v>1.068793208420777</v>
+        <v>1.05233534844008</v>
       </c>
       <c r="N9">
-        <v>1.021529824828717</v>
+        <v>1.015428668530205</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04593146806375</v>
+        <v>1.002725555974597</v>
       </c>
       <c r="D10">
-        <v>1.055672095231603</v>
+        <v>1.03620783122168</v>
       </c>
       <c r="E10">
-        <v>1.053621539961588</v>
+        <v>1.020386848675484</v>
       </c>
       <c r="F10">
-        <v>1.064293052769908</v>
+        <v>1.032815215261475</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048112098555884</v>
+        <v>1.05379604583499</v>
       </c>
       <c r="J10">
-        <v>1.05219564607019</v>
+        <v>1.030831451785609</v>
       </c>
       <c r="K10">
-        <v>1.059048849376609</v>
+        <v>1.049952731902162</v>
       </c>
       <c r="L10">
-        <v>1.057005338141598</v>
+        <v>1.034397516429214</v>
       </c>
       <c r="M10">
-        <v>1.067640518623316</v>
+        <v>1.046616223345797</v>
       </c>
       <c r="N10">
-        <v>1.021156790859933</v>
+        <v>1.013511986139341</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045224982579521</v>
+        <v>0.9989311968473032</v>
       </c>
       <c r="D11">
-        <v>1.055190410213152</v>
+        <v>1.033666378956686</v>
       </c>
       <c r="E11">
-        <v>1.05301356596378</v>
+        <v>1.017313011651678</v>
       </c>
       <c r="F11">
-        <v>1.063673907209321</v>
+        <v>1.029683039667143</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047909368289318</v>
+        <v>1.052433522757889</v>
       </c>
       <c r="J11">
-        <v>1.051720697631652</v>
+        <v>1.028348506975888</v>
       </c>
       <c r="K11">
-        <v>1.058687799831713</v>
+        <v>1.047980148992309</v>
       </c>
       <c r="L11">
-        <v>1.056518722499786</v>
+        <v>1.031915652432607</v>
       </c>
       <c r="M11">
-        <v>1.067141362226947</v>
+        <v>1.044066077736848</v>
       </c>
       <c r="N11">
-        <v>1.020994997049184</v>
+        <v>1.012655468623827</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044962613720388</v>
+        <v>0.9975037648445026</v>
       </c>
       <c r="D12">
-        <v>1.055011519360587</v>
+        <v>1.032711547581867</v>
       </c>
       <c r="E12">
-        <v>1.052787847280828</v>
+        <v>1.016158206394148</v>
       </c>
       <c r="F12">
-        <v>1.063444041295728</v>
+        <v>1.02850644731036</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047833841019937</v>
+        <v>1.051919326655666</v>
       </c>
       <c r="J12">
-        <v>1.051544225494213</v>
+        <v>1.027414146841232</v>
       </c>
       <c r="K12">
-        <v>1.05855359297479</v>
+        <v>1.047237779665736</v>
       </c>
       <c r="L12">
-        <v>1.056337964648175</v>
+        <v>1.030982252666659</v>
       </c>
       <c r="M12">
-        <v>1.06695594885209</v>
+        <v>1.043107155145747</v>
       </c>
       <c r="N12">
-        <v>1.020934859626611</v>
+        <v>1.012333113806028</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04501889041038</v>
+        <v>0.9978107879671585</v>
       </c>
       <c r="D13">
-        <v>1.055049890753589</v>
+        <v>1.032916861145377</v>
       </c>
       <c r="E13">
-        <v>1.052836259718982</v>
+        <v>1.016406518570968</v>
       </c>
       <c r="F13">
-        <v>1.063493343218465</v>
+        <v>1.028759438112092</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047850052017052</v>
+        <v>1.052029995811682</v>
       </c>
       <c r="J13">
-        <v>1.051582081856433</v>
+        <v>1.0276151279058</v>
       </c>
       <c r="K13">
-        <v>1.058582385179196</v>
+        <v>1.047397465612482</v>
       </c>
       <c r="L13">
-        <v>1.056376738135882</v>
+        <v>1.031183001947131</v>
       </c>
       <c r="M13">
-        <v>1.066995720841817</v>
+        <v>1.04331338634015</v>
       </c>
       <c r="N13">
-        <v>1.020947761114445</v>
+        <v>1.01240245393538</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045203294041432</v>
+        <v>0.998813579237686</v>
       </c>
       <c r="D14">
-        <v>1.055175622453966</v>
+        <v>1.033587676388854</v>
       </c>
       <c r="E14">
-        <v>1.052994905740535</v>
+        <v>1.017217825579985</v>
       </c>
       <c r="F14">
-        <v>1.063654904125129</v>
+        <v>1.02958605502894</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047903129753904</v>
+        <v>1.052391186440815</v>
       </c>
       <c r="J14">
-        <v>1.051706111512576</v>
+        <v>1.028271522859836</v>
       </c>
       <c r="K14">
-        <v>1.058676708225625</v>
+        <v>1.047918984482031</v>
       </c>
       <c r="L14">
-        <v>1.056503781142081</v>
+        <v>1.031838736124018</v>
       </c>
       <c r="M14">
-        <v>1.067126035986794</v>
+        <v>1.04398705494648</v>
       </c>
       <c r="N14">
-        <v>1.020990026885778</v>
+        <v>1.012628909763635</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045316918001697</v>
+        <v>0.9994290088614152</v>
       </c>
       <c r="D15">
-        <v>1.055253093699638</v>
+        <v>1.033999536609788</v>
       </c>
       <c r="E15">
-        <v>1.053092667377666</v>
+        <v>1.017715947442698</v>
       </c>
       <c r="F15">
-        <v>1.063754462039959</v>
+        <v>1.030093594439536</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047935802997227</v>
+        <v>1.052612644137252</v>
       </c>
       <c r="J15">
-        <v>1.051782522980888</v>
+        <v>1.0286743282406</v>
       </c>
       <c r="K15">
-        <v>1.058734810936397</v>
+        <v>1.048239014315853</v>
       </c>
       <c r="L15">
-        <v>1.056582055600441</v>
+        <v>1.032241209342005</v>
       </c>
       <c r="M15">
-        <v>1.067206326876742</v>
+        <v>1.044400557064662</v>
       </c>
       <c r="N15">
-        <v>1.021016062928765</v>
+        <v>1.012767872693818</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045978362376241</v>
+        <v>1.00297490525491</v>
       </c>
       <c r="D16">
-        <v>1.055704067007582</v>
+        <v>1.036375012242007</v>
       </c>
       <c r="E16">
-        <v>1.053661904572023</v>
+        <v>1.020589060564179</v>
       </c>
       <c r="F16">
-        <v>1.064334159125995</v>
+        <v>1.033021282071414</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048125521634784</v>
+        <v>1.053885357180429</v>
       </c>
       <c r="J16">
-        <v>1.052227159082349</v>
+        <v>1.030994578303849</v>
       </c>
       <c r="K16">
-        <v>1.059072797409687</v>
+        <v>1.050082316868232</v>
       </c>
       <c r="L16">
-        <v>1.057037632191224</v>
+        <v>1.034560647962456</v>
       </c>
       <c r="M16">
-        <v>1.067673645327129</v>
+        <v>1.046783863878036</v>
       </c>
       <c r="N16">
-        <v>1.021167522961557</v>
+        <v>1.013568252574502</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046393360439769</v>
+        <v>1.005168168498823</v>
       </c>
       <c r="D17">
-        <v>1.05598700016975</v>
+        <v>1.037846400385209</v>
       </c>
       <c r="E17">
-        <v>1.054019167185271</v>
+        <v>1.022368835583894</v>
       </c>
       <c r="F17">
-        <v>1.06469798703339</v>
+        <v>1.034835074378846</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048244127217486</v>
+        <v>1.054669666444466</v>
       </c>
       <c r="J17">
-        <v>1.052505968931179</v>
+        <v>1.032429180169867</v>
       </c>
       <c r="K17">
-        <v>1.059284633867827</v>
+        <v>1.051221863074784</v>
       </c>
       <c r="L17">
-        <v>1.057323390101183</v>
+        <v>1.035995705145819</v>
       </c>
       <c r="M17">
-        <v>1.067966773179009</v>
+        <v>1.048258695156035</v>
       </c>
       <c r="N17">
-        <v>1.021262458333645</v>
+        <v>1.014063048129976</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046635454774833</v>
+        <v>1.006436630239498</v>
       </c>
       <c r="D18">
-        <v>1.056152047811806</v>
+        <v>1.038698076290432</v>
       </c>
       <c r="E18">
-        <v>1.054227622536019</v>
+        <v>1.023399085857259</v>
       </c>
       <c r="F18">
-        <v>1.064910273228791</v>
+        <v>1.035885086811097</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048313163625748</v>
+        <v>1.055122198405261</v>
       </c>
       <c r="J18">
-        <v>1.052668558343751</v>
+        <v>1.033258655611343</v>
       </c>
       <c r="K18">
-        <v>1.059408131742073</v>
+        <v>1.051880667685825</v>
       </c>
       <c r="L18">
-        <v>1.057490062921349</v>
+        <v>1.036825784626815</v>
       </c>
       <c r="M18">
-        <v>1.068137746360536</v>
+        <v>1.049111869163701</v>
       </c>
       <c r="N18">
-        <v>1.021317806692301</v>
+        <v>1.01434910447819</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046718008283413</v>
+        <v>1.006867336368572</v>
       </c>
       <c r="D19">
-        <v>1.056208327732092</v>
+        <v>1.038987379070565</v>
       </c>
       <c r="E19">
-        <v>1.054298712295181</v>
+        <v>1.02374906203992</v>
       </c>
       <c r="F19">
-        <v>1.064982669442956</v>
+        <v>1.036241787730859</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048336678784903</v>
+        <v>1.055275672251101</v>
       </c>
       <c r="J19">
-        <v>1.052723991073612</v>
+        <v>1.033540265138481</v>
       </c>
       <c r="K19">
-        <v>1.059450230662622</v>
+        <v>1.052104320411838</v>
       </c>
       <c r="L19">
-        <v>1.057546893193852</v>
+        <v>1.037107656698038</v>
       </c>
       <c r="M19">
-        <v>1.06819604321132</v>
+        <v>1.049401597972476</v>
       </c>
       <c r="N19">
-        <v>1.021336674663285</v>
+        <v>1.014446216046693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046348831663444</v>
+        <v>1.004933979830282</v>
       </c>
       <c r="D20">
-        <v>1.055956642299923</v>
+        <v>1.037689216714376</v>
       </c>
       <c r="E20">
-        <v>1.053980829030859</v>
+        <v>1.022178700859705</v>
       </c>
       <c r="F20">
-        <v>1.064658944337069</v>
+        <v>1.034641298112255</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048231416876136</v>
+        <v>1.054586031200857</v>
       </c>
       <c r="J20">
-        <v>1.052476058958468</v>
+        <v>1.032276020878209</v>
       </c>
       <c r="K20">
-        <v>1.059261912306183</v>
+        <v>1.051100211328815</v>
       </c>
       <c r="L20">
-        <v>1.057292731488547</v>
+        <v>1.035842461795894</v>
       </c>
       <c r="M20">
-        <v>1.067935323674783</v>
+        <v>1.048101195265438</v>
       </c>
       <c r="N20">
-        <v>1.021252275337638</v>
+        <v>1.014010226443404</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045148990352321</v>
+        <v>0.9985187890309204</v>
       </c>
       <c r="D21">
-        <v>1.055138596809465</v>
+        <v>1.033390441382998</v>
       </c>
       <c r="E21">
-        <v>1.05294818540123</v>
+        <v>1.016979282078301</v>
       </c>
       <c r="F21">
-        <v>1.0636073253577</v>
+        <v>1.029343006335793</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047887505870417</v>
+        <v>1.052285051264872</v>
       </c>
       <c r="J21">
-        <v>1.051669589389579</v>
+        <v>1.028078569870141</v>
       </c>
       <c r="K21">
-        <v>1.058648935111249</v>
+        <v>1.047765680877727</v>
       </c>
       <c r="L21">
-        <v>1.056466370336214</v>
+        <v>1.031645962044323</v>
       </c>
       <c r="M21">
-        <v>1.067087661542553</v>
+        <v>1.043789004011863</v>
       </c>
       <c r="N21">
-        <v>1.020977581771983</v>
+        <v>1.01256234206402</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04439489931713</v>
+        <v>0.9943803563666692</v>
       </c>
       <c r="D22">
-        <v>1.054624424022851</v>
+        <v>1.030624711792329</v>
       </c>
       <c r="E22">
-        <v>1.05229955772567</v>
+        <v>1.013634326303026</v>
       </c>
       <c r="F22">
-        <v>1.062946781004428</v>
+        <v>1.025935208599149</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047669978249805</v>
+        <v>1.050791304321041</v>
       </c>
       <c r="J22">
-        <v>1.051162211109395</v>
+        <v>1.025369198217248</v>
       </c>
       <c r="K22">
-        <v>1.05826297124702</v>
+        <v>1.045612957786159</v>
       </c>
       <c r="L22">
-        <v>1.055946763242853</v>
+        <v>1.028940438388814</v>
       </c>
       <c r="M22">
-        <v>1.06655467721433</v>
+        <v>1.041009816971943</v>
       </c>
       <c r="N22">
-        <v>1.020804639717573</v>
+        <v>1.011627547114894</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044794629123764</v>
+        <v>0.9965845400948975</v>
       </c>
       <c r="D23">
-        <v>1.054896980773475</v>
+        <v>1.032097034949204</v>
       </c>
       <c r="E23">
-        <v>1.052643346980541</v>
+        <v>1.015414998502015</v>
       </c>
       <c r="F23">
-        <v>1.063296886147519</v>
+        <v>1.027749256487513</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047785416604062</v>
+        <v>1.051587752742839</v>
       </c>
       <c r="J23">
-        <v>1.051431212044315</v>
+        <v>1.026812374908927</v>
       </c>
       <c r="K23">
-        <v>1.058467630929754</v>
+        <v>1.04675964663989</v>
       </c>
       <c r="L23">
-        <v>1.056222220518626</v>
+        <v>1.030381256830984</v>
       </c>
       <c r="M23">
-        <v>1.066837224487968</v>
+        <v>1.042489772053514</v>
       </c>
       <c r="N23">
-        <v>1.020896341426984</v>
+        <v>1.012125492767497</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046368952198683</v>
+        <v>1.00503983300455</v>
       </c>
       <c r="D24">
-        <v>1.055970359660516</v>
+        <v>1.037760261481628</v>
       </c>
       <c r="E24">
-        <v>1.053998152175959</v>
+        <v>1.02226463880176</v>
       </c>
       <c r="F24">
-        <v>1.06467658582997</v>
+        <v>1.034728881756874</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048237160577891</v>
+        <v>1.054623837614473</v>
       </c>
       <c r="J24">
-        <v>1.052489574097799</v>
+        <v>1.03234524949274</v>
       </c>
       <c r="K24">
-        <v>1.059272179395758</v>
+        <v>1.05115519863291</v>
       </c>
       <c r="L24">
-        <v>1.057306584811141</v>
+        <v>1.035911727348977</v>
       </c>
       <c r="M24">
-        <v>1.067949534362328</v>
+        <v>1.048172384490893</v>
       </c>
       <c r="N24">
-        <v>1.021256876675045</v>
+        <v>1.014034102153149</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048197160577859</v>
+        <v>1.014429905799721</v>
       </c>
       <c r="D25">
-        <v>1.05721663942323</v>
+        <v>1.044076410533914</v>
       </c>
       <c r="E25">
-        <v>1.055573076044033</v>
+        <v>1.029906968486505</v>
       </c>
       <c r="F25">
-        <v>1.066280453481247</v>
+        <v>1.042518919034507</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048755725624007</v>
+        <v>1.057954220882834</v>
       </c>
       <c r="J25">
-        <v>1.053716344372003</v>
+        <v>1.038481217009809</v>
       </c>
       <c r="K25">
-        <v>1.060203349211975</v>
+        <v>1.056026966938694</v>
       </c>
       <c r="L25">
-        <v>1.058564733814121</v>
+        <v>1.042058102201939</v>
       </c>
       <c r="M25">
-        <v>1.069240174782798</v>
+        <v>1.054491185995196</v>
       </c>
       <c r="N25">
-        <v>1.021674243410187</v>
+        <v>1.016149547778583</v>
       </c>
     </row>
   </sheetData>
